--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_18-53.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_18-53.xlsx
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>KENACOMB TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -2066,17 +2069,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2084,7 +2087,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2092,17 +2095,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2118,13 +2121,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2144,13 +2147,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
@@ -2170,17 +2173,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2196,17 +2199,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2222,13 +2225,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
@@ -2240,7 +2243,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2248,17 +2251,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2274,17 +2277,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>24.960000000000001</v>
+        <v>46</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2300,17 +2303,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>36</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2326,17 +2329,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>33.840000000000003</v>
+        <v>36</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2352,17 +2355,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>31</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2378,17 +2381,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2396,7 +2399,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2404,17 +2407,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>1.5</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2422,7 +2425,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2430,17 +2433,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2456,17 +2459,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2482,17 +2485,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2500,7 +2503,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2508,17 +2511,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2540,7 +2543,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2560,7 +2563,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2586,13 +2589,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
@@ -2612,13 +2615,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2638,13 +2641,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2664,13 +2667,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2690,13 +2693,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2716,17 +2719,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>134.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2742,17 +2745,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>60</v>
+        <v>134.40000000000001</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2768,13 +2771,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2794,13 +2797,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2820,13 +2823,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2846,7 +2849,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -2856,7 +2859,7 @@
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2872,17 +2875,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2898,17 +2901,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2924,17 +2927,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>128</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2950,17 +2953,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2976,17 +2979,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>24.960000000000001</v>
+        <v>18</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3002,17 +3005,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>17</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3028,17 +3031,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3054,13 +3057,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>102.59999999999999</v>
+        <v>69</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3080,17 +3083,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>168</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3112,11 +3115,11 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3132,13 +3135,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3158,17 +3161,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>78.400000000000006</v>
+        <v>30</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3176,7 +3179,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3184,17 +3187,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3202,7 +3205,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3210,13 +3213,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3236,17 +3239,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3254,7 +3257,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3262,17 +3265,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3288,17 +3291,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3306,7 +3309,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3314,17 +3317,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3346,11 +3349,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3366,17 +3369,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3384,7 +3387,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3392,17 +3395,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3418,13 +3421,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3436,7 +3439,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3444,13 +3447,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3462,7 +3465,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3470,51 +3473,77 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="100" ht="26.25" customHeight="1">
-      <c r="K100" s="11">
-        <v>5743.9399999999996</v>
-      </c>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="12">
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
         <v>132</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c t="s" r="F101" s="13">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>43</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>30</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c r="N100" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="K101" s="11">
+        <v>5762.9399999999996</v>
+      </c>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="12">
         <v>133</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c t="s" r="I101" s="15">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c t="s" r="F102" s="13">
         <v>134</v>
       </c>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c t="s" r="I102" s="15">
+        <v>135</v>
+      </c>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="302">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3810,10 +3839,13 @@
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:N101"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:N102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
